--- a/biology/Microbiologie/Erwinia/Erwinia.xlsx
+++ b/biology/Microbiologie/Erwinia/Erwinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erwinia est un genre de bacilles Gram négatifs de la famille des Erwiniaceae dont il est le genre type. Son nom fait référence au biologiste Erwin F. Smith en hommage à sa carrière consacrée à la phytopathologie[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erwinia est un genre de bacilles Gram négatifs de la famille des Erwiniaceae dont il est le genre type. Son nom fait référence au biologiste Erwin F. Smith en hommage à sa carrière consacrée à la phytopathologie,.
 Les Erwinia sont des bactéries mobiles grâce à des flagelles péritriches. Ces bactéries sont associées aux végétaux en tant que saprophytes ou pathogènes. Elles peuvent entraîner des dégradations de la structure des végétaux, des flétrissements, des dépérissements, des jaunissements ou des pourritures.
 Parmi les espèces les plus connues figurent : 
 Erwinia amylovora, agent du feu bactérien des Rosaceae, notamment le poirier et le pommier,
 Erwinia tracheiphila, agent du flétrissement bactérien des Cucurbitaceae.
 dont des espèces reclassées :
-Erwinia herbicola (désormais reclassée sous le nom de Pantoea agglomerans), bactérie associée aux végétaux, normalement non pathogène ou pathogène opportuniste en cas de faiblesse de la plante, peut aussi être pathogène pour l'homme et les animaux[3].
+Erwinia herbicola (désormais reclassée sous le nom de Pantoea agglomerans), bactérie associée aux végétaux, normalement non pathogène ou pathogène opportuniste en cas de faiblesse de la plante, peut aussi être pathogène pour l'homme et les animaux.
 Erwinia chrysanthemi (désormais reclassée sous le nom de Dickeya dadantii), entérobactérie phytopathogène (c.-à-d. qui attaque les plantes). Elle a une large gamme d'hôtes que ce soit des plantes ornementales ou d'intérêt agricole. C'est l'une des bactéries responsable de la maladie de la pourriture molle bactérienne.
 </t>
         </is>
@@ -518,9 +530,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'en 2016 ce genre était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Erwiniaceae nouvellement créée[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 2016 ce genre était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Erwiniaceae nouvellement créée.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (25 octobre 2022)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (25 octobre 2022) :
 Erwinia amylovora (Burrill 1882) Winslow et al. 1920 – espèce type
 Erwinia aphidicola Harada et al. 1998
 Erwinia billingiae Mergaert et al. 1999
